--- a/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Il15-Il2rb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,57 +534,57 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.69477411847667</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H2">
-        <v>4.69477411847667</v>
+        <v>14.63266</v>
       </c>
       <c r="I2">
-        <v>0.1350902422517625</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J2">
-        <v>0.1350902422517625</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.744289164941057</v>
+        <v>0.8050890000000001</v>
       </c>
       <c r="N2">
-        <v>0.744289164941057</v>
+        <v>2.415267</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.4647747390621633</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.4647747390621632</v>
       </c>
       <c r="Q2">
-        <v>3.494269508227888</v>
+        <v>3.926864535580001</v>
       </c>
       <c r="R2">
-        <v>3.494269508227888</v>
+        <v>35.34178082022</v>
       </c>
       <c r="S2">
-        <v>0.1350902422517625</v>
+        <v>0.0561780290210841</v>
       </c>
       <c r="T2">
-        <v>0.1350902422517625</v>
+        <v>0.05748415908812239</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.96730680095164</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H3">
-        <v>2.96730680095164</v>
+        <v>14.63266</v>
       </c>
       <c r="I3">
-        <v>0.08538306305265352</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J3">
-        <v>0.08538306305265352</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.744289164941057</v>
+        <v>0.7189636666666667</v>
       </c>
       <c r="N3">
-        <v>0.744289164941057</v>
+        <v>2.156891</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.4150549201022199</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.4150549201022198</v>
       </c>
       <c r="Q3">
-        <v>2.208534301004216</v>
+        <v>3.506783628895556</v>
       </c>
       <c r="R3">
-        <v>2.208534301004216</v>
+        <v>31.56105266006</v>
       </c>
       <c r="S3">
-        <v>0.08538306305265352</v>
+        <v>0.05016831894499246</v>
       </c>
       <c r="T3">
-        <v>0.08538306305265352</v>
+        <v>0.05133472422706863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.9184295628007</v>
+        <v>4.877553333333334</v>
       </c>
       <c r="H4">
-        <v>12.9184295628007</v>
+        <v>14.63266</v>
       </c>
       <c r="I4">
-        <v>0.3717226292704648</v>
+        <v>0.1208715196837975</v>
       </c>
       <c r="J4">
-        <v>0.3717226292704648</v>
+        <v>0.1236817629204971</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.744289164941057</v>
+        <v>0.2081606666666667</v>
       </c>
       <c r="N4">
-        <v>0.744289164941057</v>
+        <v>0.624482</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1201703408356169</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1201703408356169</v>
       </c>
       <c r="Q4">
-        <v>9.615047151646797</v>
+        <v>1.015314753568889</v>
       </c>
       <c r="R4">
-        <v>9.615047151646797</v>
+        <v>9.13783278212</v>
       </c>
       <c r="S4">
-        <v>0.3717226292704648</v>
+        <v>0.01452517171772091</v>
       </c>
       <c r="T4">
-        <v>0.3717226292704648</v>
+        <v>0.0148628796053061</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>11.6217358952079</v>
+        <v>3.649884</v>
       </c>
       <c r="H5">
-        <v>11.6217358952079</v>
+        <v>10.949652</v>
       </c>
       <c r="I5">
-        <v>0.3344107890709461</v>
+        <v>0.09044842682388111</v>
       </c>
       <c r="J5">
-        <v>0.3344107890709461</v>
+        <v>0.09255133808384444</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.744289164941057</v>
+        <v>0.8050890000000001</v>
       </c>
       <c r="N5">
-        <v>0.744289164941057</v>
+        <v>2.415267</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.4647747390621633</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.4647747390621632</v>
       </c>
       <c r="Q5">
-        <v>8.649932104609796</v>
+        <v>2.938481459676</v>
       </c>
       <c r="R5">
-        <v>8.649932104609796</v>
+        <v>26.446333137084</v>
       </c>
       <c r="S5">
-        <v>0.3344107890709461</v>
+        <v>0.04203814397565251</v>
       </c>
       <c r="T5">
-        <v>0.3344107890709461</v>
+        <v>0.04301552400777285</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,675 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>3.649884</v>
+      </c>
+      <c r="H6">
+        <v>10.949652</v>
+      </c>
+      <c r="I6">
+        <v>0.09044842682388111</v>
+      </c>
+      <c r="J6">
+        <v>0.09255133808384444</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.7189636666666667</v>
+      </c>
+      <c r="N6">
+        <v>2.156891</v>
+      </c>
+      <c r="O6">
+        <v>0.4150549201022199</v>
+      </c>
+      <c r="P6">
+        <v>0.4150549201022198</v>
+      </c>
+      <c r="Q6">
+        <v>2.624133983548</v>
+      </c>
+      <c r="R6">
+        <v>23.617205851932</v>
+      </c>
+      <c r="S6">
+        <v>0.03754106456875746</v>
+      </c>
+      <c r="T6">
+        <v>0.03841388823374359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>2.5506272588928</v>
-      </c>
-      <c r="H6">
-        <v>2.5506272588928</v>
-      </c>
-      <c r="I6">
-        <v>0.07339327635417302</v>
-      </c>
-      <c r="J6">
-        <v>0.07339327635417302</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.744289164941057</v>
-      </c>
-      <c r="N6">
-        <v>0.744289164941057</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>1.898404232597219</v>
-      </c>
-      <c r="R6">
-        <v>1.898404232597219</v>
-      </c>
-      <c r="S6">
-        <v>0.07339327635417302</v>
-      </c>
-      <c r="T6">
-        <v>0.07339327635417302</v>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>3.649884</v>
+      </c>
+      <c r="H7">
+        <v>10.949652</v>
+      </c>
+      <c r="I7">
+        <v>0.09044842682388111</v>
+      </c>
+      <c r="J7">
+        <v>0.09255133808384444</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.2081606666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.624482</v>
+      </c>
+      <c r="O7">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="P7">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="Q7">
+        <v>0.759762286696</v>
+      </c>
+      <c r="R7">
+        <v>6.837860580264</v>
+      </c>
+      <c r="S7">
+        <v>0.01086921827947114</v>
+      </c>
+      <c r="T7">
+        <v>0.01112192584232799</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H8">
+        <v>50.691917</v>
+      </c>
+      <c r="I8">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J8">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.8050890000000001</v>
+      </c>
+      <c r="N8">
+        <v>2.415267</v>
+      </c>
+      <c r="O8">
+        <v>0.4647747390621633</v>
+      </c>
+      <c r="P8">
+        <v>0.4647747390621632</v>
+      </c>
+      <c r="Q8">
+        <v>13.603834921871</v>
+      </c>
+      <c r="R8">
+        <v>122.434514296839</v>
+      </c>
+      <c r="S8">
+        <v>0.1946175189172978</v>
+      </c>
+      <c r="T8">
+        <v>0.1991423446803176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H9">
+        <v>50.691917</v>
+      </c>
+      <c r="I9">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J9">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.7189636666666667</v>
+      </c>
+      <c r="N9">
+        <v>2.156891</v>
+      </c>
+      <c r="O9">
+        <v>0.4150549201022199</v>
+      </c>
+      <c r="P9">
+        <v>0.4150549201022198</v>
+      </c>
+      <c r="Q9">
+        <v>12.14854883889411</v>
+      </c>
+      <c r="R9">
+        <v>109.336939550047</v>
+      </c>
+      <c r="S9">
+        <v>0.1737980831912369</v>
+      </c>
+      <c r="T9">
+        <v>0.1778388604489172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>16.89730566666667</v>
+      </c>
+      <c r="H10">
+        <v>50.691917</v>
+      </c>
+      <c r="I10">
+        <v>0.4187351475039348</v>
+      </c>
+      <c r="J10">
+        <v>0.428470671797166</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.2081606666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.624482</v>
+      </c>
+      <c r="O10">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="P10">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="Q10">
+        <v>3.517354412443778</v>
+      </c>
+      <c r="R10">
+        <v>31.656189711994</v>
+      </c>
+      <c r="S10">
+        <v>0.05031954539540014</v>
+      </c>
+      <c r="T10">
+        <v>0.05148946666793116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.177799</v>
+      </c>
+      <c r="H11">
+        <v>36.533397</v>
+      </c>
+      <c r="I11">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J11">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.8050890000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.415267</v>
+      </c>
+      <c r="O11">
+        <v>0.4647747390621633</v>
+      </c>
+      <c r="P11">
+        <v>0.4647747390621632</v>
+      </c>
+      <c r="Q11">
+        <v>9.804212019111</v>
+      </c>
+      <c r="R11">
+        <v>88.23790817199901</v>
+      </c>
+      <c r="S11">
+        <v>0.1402598185774006</v>
+      </c>
+      <c r="T11">
+        <v>0.1435208366201041</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.177799</v>
+      </c>
+      <c r="H12">
+        <v>36.533397</v>
+      </c>
+      <c r="I12">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J12">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.7189636666666667</v>
+      </c>
+      <c r="N12">
+        <v>2.156891</v>
+      </c>
+      <c r="O12">
+        <v>0.4150549201022199</v>
+      </c>
+      <c r="P12">
+        <v>0.4150549201022198</v>
+      </c>
+      <c r="Q12">
+        <v>8.755395020969667</v>
+      </c>
+      <c r="R12">
+        <v>78.79855518872699</v>
+      </c>
+      <c r="S12">
+        <v>0.1252553611469159</v>
+      </c>
+      <c r="T12">
+        <v>0.1281675279869153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.177799</v>
+      </c>
+      <c r="H13">
+        <v>36.533397</v>
+      </c>
+      <c r="I13">
+        <v>0.3017802104744788</v>
+      </c>
+      <c r="J13">
+        <v>0.3087965514427589</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.2081606666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.624482</v>
+      </c>
+      <c r="O13">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="P13">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="Q13">
+        <v>2.534938758372667</v>
+      </c>
+      <c r="R13">
+        <v>22.814448825354</v>
+      </c>
+      <c r="S13">
+        <v>0.0362650307501623</v>
+      </c>
+      <c r="T13">
+        <v>0.03710818683573943</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.750664</v>
+      </c>
+      <c r="H14">
+        <v>5.501328</v>
+      </c>
+      <c r="I14">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J14">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8050890000000001</v>
+      </c>
+      <c r="N14">
+        <v>2.415267</v>
+      </c>
+      <c r="O14">
+        <v>0.4647747390621633</v>
+      </c>
+      <c r="P14">
+        <v>0.4647747390621632</v>
+      </c>
+      <c r="Q14">
+        <v>2.214529329096</v>
+      </c>
+      <c r="R14">
+        <v>13.287175974576</v>
+      </c>
+      <c r="S14">
+        <v>0.03168122857072835</v>
+      </c>
+      <c r="T14">
+        <v>0.02161187466584627</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.750664</v>
+      </c>
+      <c r="H15">
+        <v>5.501328</v>
+      </c>
+      <c r="I15">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J15">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.7189636666666667</v>
+      </c>
+      <c r="N15">
+        <v>2.156891</v>
+      </c>
+      <c r="O15">
+        <v>0.4150549201022199</v>
+      </c>
+      <c r="P15">
+        <v>0.4150549201022198</v>
+      </c>
+      <c r="Q15">
+        <v>1.977627475208</v>
+      </c>
+      <c r="R15">
+        <v>11.865764851248</v>
+      </c>
+      <c r="S15">
+        <v>0.02829209225031718</v>
+      </c>
+      <c r="T15">
+        <v>0.01929991920557513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.750664</v>
+      </c>
+      <c r="H16">
+        <v>5.501328</v>
+      </c>
+      <c r="I16">
+        <v>0.06816469551390787</v>
+      </c>
+      <c r="J16">
+        <v>0.04649967575573358</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2081606666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.624482</v>
+      </c>
+      <c r="O16">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="P16">
+        <v>0.1201703408356169</v>
+      </c>
+      <c r="Q16">
+        <v>0.5725800520159999</v>
+      </c>
+      <c r="R16">
+        <v>3.435480312096</v>
+      </c>
+      <c r="S16">
+        <v>0.008191374692862352</v>
+      </c>
+      <c r="T16">
+        <v>0.005587881884312174</v>
       </c>
     </row>
   </sheetData>
